--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H2">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I2">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J2">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>19.83126848793422</v>
+        <v>26.21515730780389</v>
       </c>
       <c r="R2">
-        <v>178.481416391408</v>
+        <v>235.936415770235</v>
       </c>
       <c r="S2">
-        <v>0.005087524341475679</v>
+        <v>0.005272460176639985</v>
       </c>
       <c r="T2">
-        <v>0.005087524341475679</v>
+        <v>0.005272460176639986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H3">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I3">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J3">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>9.973148758051556</v>
+        <v>12.21581305274889</v>
       </c>
       <c r="R3">
-        <v>89.758338822464</v>
+        <v>109.94231747474</v>
       </c>
       <c r="S3">
-        <v>0.002558516975281522</v>
+        <v>0.002456875886330243</v>
       </c>
       <c r="T3">
-        <v>0.002558516975281522</v>
+        <v>0.002456875886330244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H4">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I4">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J4">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>3.227722409368889</v>
+        <v>3.422549031702778</v>
       </c>
       <c r="R4">
-        <v>29.04950168432</v>
+        <v>30.802941285325</v>
       </c>
       <c r="S4">
-        <v>0.000828041652261514</v>
+        <v>0.0006883519049828024</v>
       </c>
       <c r="T4">
-        <v>0.000828041652261514</v>
+        <v>0.0006883519049828024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H5">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I5">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J5">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>9.549667634323555</v>
+        <v>12.32626243523389</v>
       </c>
       <c r="R5">
-        <v>85.94700870891199</v>
+        <v>110.936361917105</v>
       </c>
       <c r="S5">
-        <v>0.002449876898806711</v>
+        <v>0.002479089751532315</v>
       </c>
       <c r="T5">
-        <v>0.002449876898806711</v>
+        <v>0.002479089751532315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.002559</v>
       </c>
       <c r="I6">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J6">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>39.44969821263144</v>
+        <v>42.57509034343011</v>
       </c>
       <c r="R6">
-        <v>355.047283913683</v>
+        <v>383.175813090871</v>
       </c>
       <c r="S6">
-        <v>0.01012044691153988</v>
+        <v>0.008562812182163088</v>
       </c>
       <c r="T6">
-        <v>0.01012044691153988</v>
+        <v>0.008562812182163091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.002559</v>
       </c>
       <c r="I7">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J7">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
         <v>19.83926086090711</v>
@@ -883,10 +883,10 @@
         <v>178.553347748164</v>
       </c>
       <c r="S7">
-        <v>0.005089574709159949</v>
+        <v>0.003990123408184415</v>
       </c>
       <c r="T7">
-        <v>0.005089574709159949</v>
+        <v>0.003990123408184417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.002559</v>
       </c>
       <c r="I8">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J8">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>6.420803341007778</v>
+        <v>5.558438292727222</v>
       </c>
       <c r="R8">
-        <v>57.78723006907</v>
+        <v>50.025944634545</v>
       </c>
       <c r="S8">
-        <v>0.001647196361094105</v>
+        <v>0.001117927472210546</v>
       </c>
       <c r="T8">
-        <v>0.001647196361094105</v>
+        <v>0.001117927472210546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.002559</v>
       </c>
       <c r="I9">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J9">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>18.99684361765411</v>
+        <v>20.01863771462811</v>
       </c>
       <c r="R9">
-        <v>170.971592558887</v>
+        <v>180.167739431653</v>
       </c>
       <c r="S9">
-        <v>0.004873460534046235</v>
+        <v>0.004026200144507238</v>
       </c>
       <c r="T9">
-        <v>0.004873460534046235</v>
+        <v>0.00402620014450724</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H10">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I10">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J10">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>87.78680184280256</v>
+        <v>62.37183065074188</v>
       </c>
       <c r="R10">
-        <v>790.0812165852229</v>
+        <v>561.3464758566769</v>
       </c>
       <c r="S10">
-        <v>0.02252087361468037</v>
+        <v>0.01254438374673704</v>
       </c>
       <c r="T10">
-        <v>0.02252087361468037</v>
+        <v>0.01254438374673704</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H11">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I11">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J11">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>44.14799962516489</v>
+        <v>29.06420182954088</v>
       </c>
       <c r="R11">
-        <v>397.3319966264841</v>
+        <v>261.577816465868</v>
       </c>
       <c r="S11">
-        <v>0.01132575169647567</v>
+        <v>0.005845467372666268</v>
       </c>
       <c r="T11">
-        <v>0.01132575169647567</v>
+        <v>0.005845467372666269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H12">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I12">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J12">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>14.28811413285222</v>
+        <v>8.143023751212777</v>
       </c>
       <c r="R12">
-        <v>128.59302719567</v>
+        <v>73.28721376091499</v>
       </c>
       <c r="S12">
-        <v>0.003665480525811813</v>
+        <v>0.001637745978084294</v>
       </c>
       <c r="T12">
-        <v>0.003665480525811812</v>
+        <v>0.001637745978084294</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H13">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I13">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J13">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>42.27338159377189</v>
+        <v>29.32698606916789</v>
       </c>
       <c r="R13">
-        <v>380.460434343947</v>
+        <v>263.942874622511</v>
       </c>
       <c r="S13">
-        <v>0.01084483617301918</v>
+        <v>0.005898319217963781</v>
       </c>
       <c r="T13">
-        <v>0.01084483617301918</v>
+        <v>0.005898319217963782</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H14">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I14">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J14">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N14">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O14">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P14">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q14">
-        <v>1668.324152324419</v>
+        <v>2274.609424307148</v>
       </c>
       <c r="R14">
-        <v>15014.91737091977</v>
+        <v>20471.48481876434</v>
       </c>
       <c r="S14">
-        <v>0.4279927801686678</v>
+        <v>0.4574753249143905</v>
       </c>
       <c r="T14">
-        <v>0.4279927801686678</v>
+        <v>0.4574753249143906</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H15">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I15">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J15">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
         <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q15">
-        <v>839.0005388664315</v>
+        <v>1059.92892467158</v>
       </c>
       <c r="R15">
-        <v>7551.004849797884</v>
+        <v>9539.360322044224</v>
       </c>
       <c r="S15">
-        <v>0.2152376519228305</v>
+        <v>0.2131756441429459</v>
       </c>
       <c r="T15">
-        <v>0.2152376519228305</v>
+        <v>0.213175644142946</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H16">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I16">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J16">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N16">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q16">
-        <v>271.5351897850189</v>
+        <v>296.9641643289689</v>
       </c>
       <c r="R16">
-        <v>2443.81670806517</v>
+        <v>2672.67747896072</v>
       </c>
       <c r="S16">
-        <v>0.06965978441767359</v>
+        <v>0.0597262000730991</v>
       </c>
       <c r="T16">
-        <v>0.06965978441767359</v>
+        <v>0.0597262000730991</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H17">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I17">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J17">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N17">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q17">
-        <v>803.3747902059885</v>
+        <v>1069.512281481517</v>
       </c>
       <c r="R17">
-        <v>7230.373111853896</v>
+        <v>9625.610533333649</v>
       </c>
       <c r="S17">
-        <v>0.2060982030971755</v>
+        <v>0.2151030736275624</v>
       </c>
       <c r="T17">
-        <v>0.2060982030971755</v>
+        <v>0.2151030736275625</v>
       </c>
     </row>
   </sheetData>
